--- a/InputData/elec/MOfEDS/Manual Override for Elec Dispatch Shareweights.xlsx
+++ b/InputData/elec/MOfEDS/Manual Override for Elec Dispatch Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\MOfEDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/VA/elec/MOfEDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC387BE5-DC79-427F-B7DB-D3B25D54F9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92AA3E3-48E0-4049-8CDE-43013AA12B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21315" yWindow="915" windowWidth="27495" windowHeight="19425" xr2:uid="{5214CE78-272C-4AF8-83F6-52B9106E2D78}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{5214CE78-272C-4AF8-83F6-52B9106E2D78}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MOfEDS-preexisting-nonretiring" sheetId="3" r:id="rId3"/>
     <sheet name="MOfEDS-newly-built" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>MOfEDS Manual Override for Electricity Dispatch Shareweights</t>
   </si>
@@ -195,6 +195,9 @@
   <si>
     <t>municipal solid waste</t>
   </si>
+  <si>
+    <t>Virginia</t>
+  </si>
 </sst>
 </file>
 
@@ -243,11 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,14 +570,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,32 +591,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -620,27 +630,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -654,42 +664,42 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -706,12 +716,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -806,7 +816,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -904,7 +914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1404,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1492,7 +1502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +1600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +2090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2385,12 +2395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -2485,7 +2495,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2583,7 +2593,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2681,7 +2691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2779,7 +2789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2877,7 +2887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2975,7 +2985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3073,7 +3083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3269,7 +3279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3563,7 +3573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3857,7 +3867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3955,7 +3965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -4064,12 +4074,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4262,7 +4272,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4360,7 +4370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4458,7 +4468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4556,7 +4566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4654,7 +4664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4948,7 +4958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -5242,7 +5252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5438,7 +5448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
